--- a/docs/symbols_reels.xlsx
+++ b/docs/symbols_reels.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t xml:space="preserve">Frequencies</t>
   </si>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">Seven</t>
   </si>
   <si>
+    <t xml:space="preserve">Jackpot</t>
+  </si>
+  <si>
     <t xml:space="preserve">🍌</t>
   </si>
   <si>
     <t xml:space="preserve">Banana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jackpot</t>
   </si>
   <si>
     <t xml:space="preserve">🍒</t>
@@ -154,7 +154,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -162,7 +162,7 @@
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -170,21 +170,21 @@
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
-      <name val="Tahoma"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFB7B7B7"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Tahoma"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -192,7 +192,7 @@
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF38761D"/>
-      <name val="Tahoma"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -218,12 +218,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE06666"/>
         <bgColor rgb="FFFF6600"/>
       </patternFill>
@@ -232,6 +226,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
         <bgColor rgb="FFFFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -308,11 +308,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -324,15 +324,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -344,7 +344,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -428,10 +428,10 @@
   <dimension ref="B1:AJ25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.5"/>
@@ -580,7 +580,7 @@
       </c>
       <c r="Z3" s="8" t="n">
         <f aca="false">AI3</f>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AA3" s="2"/>
       <c r="AB3" s="9" t="n">
@@ -612,7 +612,10 @@
         <v>172.8</v>
       </c>
       <c r="AI3" s="1" t="n">
-        <v>180</v>
+        <v>120</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,10 +624,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>3</v>
@@ -690,7 +693,7 @@
         <f aca="false">IFERROR(INDEX($C$3:$C$10,MATCH(U4,$B$3:$B$10)),"ANY")</f>
         <v>🍒</v>
       </c>
-      <c r="Z4" s="14" t="n">
+      <c r="Z4" s="8" t="n">
         <f aca="false">AI4</f>
         <v>85</v>
       </c>
@@ -726,8 +729,8 @@
       <c r="AI4" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="AJ4" s="14" t="s">
-        <v>13</v>
+      <c r="AJ4" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -805,7 +808,7 @@
         <f aca="false">IFERROR(INDEX($C$3:$C$10,MATCH(U5,$B$3:$B$10)),"ANY")</f>
         <v>🍉</v>
       </c>
-      <c r="Z5" s="14" t="n">
+      <c r="Z5" s="8" t="n">
         <f aca="false">AI5</f>
         <v>85</v>
       </c>
@@ -841,8 +844,8 @@
       <c r="AI5" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="AJ5" s="14" t="s">
-        <v>13</v>
+      <c r="AJ5" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -920,7 +923,7 @@
         <f aca="false">IFERROR(INDEX($C$3:$C$10,MATCH(U6,$B$3:$B$10)),"ANY")</f>
         <v>🍒</v>
       </c>
-      <c r="Z6" s="15" t="n">
+      <c r="Z6" s="14" t="n">
         <f aca="false">AI6</f>
         <v>60</v>
       </c>
@@ -956,7 +959,7 @@
       <c r="AI6" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="AJ6" s="15" t="s">
+      <c r="AJ6" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1035,7 +1038,7 @@
         <f aca="false">IFERROR(INDEX($C$3:$C$10,MATCH(U7,$B$3:$B$10)),"ANY")</f>
         <v>🍒</v>
       </c>
-      <c r="Z7" s="8" t="n">
+      <c r="Z7" s="15" t="n">
         <f aca="false">AI7</f>
         <v>45</v>
       </c>
@@ -1147,7 +1150,7 @@
         <f aca="false">IFERROR(INDEX($C$3:$C$10,MATCH(U8,$B$3:$B$10)),"ANY")</f>
         <v>🍒</v>
       </c>
-      <c r="Z8" s="8" t="n">
+      <c r="Z8" s="15" t="n">
         <f aca="false">AI8</f>
         <v>30</v>
       </c>
@@ -1259,7 +1262,7 @@
         <f aca="false">IFERROR(INDEX($C$3:$C$10,MATCH(U9,$B$3:$B$10)),"ANY")</f>
         <v>🍇</v>
       </c>
-      <c r="Z9" s="8" t="n">
+      <c r="Z9" s="15" t="n">
         <f aca="false">AI9</f>
         <v>22</v>
       </c>
@@ -1371,7 +1374,7 @@
         <f aca="false">IFERROR(INDEX($C$3:$C$10,MATCH(U10,$B$3:$B$10)),"ANY")</f>
         <v>🔔</v>
       </c>
-      <c r="Z10" s="15" t="n">
+      <c r="Z10" s="14" t="n">
         <f aca="false">AI10</f>
         <v>20</v>
       </c>
@@ -1407,7 +1410,7 @@
       <c r="AI10" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="AJ10" s="15" t="s">
+      <c r="AJ10" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1463,7 +1466,7 @@
         <f aca="false">IFERROR(INDEX($C$3:$C$10,MATCH(U11,$B$3:$B$10)),"ANY")</f>
         <v>🍌</v>
       </c>
-      <c r="Z11" s="8" t="n">
+      <c r="Z11" s="15" t="n">
         <f aca="false">AI11</f>
         <v>15</v>
       </c>
@@ -1833,7 +1836,7 @@
         <f aca="false">IFERROR(INDEX($C$3:$C$10,MATCH(U15,$B$3:$B$10)),"ANY")</f>
         <v>🍒</v>
       </c>
-      <c r="Z15" s="8" t="n">
+      <c r="Z15" s="15" t="n">
         <f aca="false">AI15</f>
         <v>15</v>
       </c>
@@ -1897,7 +1900,7 @@
         <f aca="false">IFERROR(INDEX($C$3:$C$10,MATCH(U16,$B$3:$B$10)),"ANY")</f>
         <v>7</v>
       </c>
-      <c r="Z16" s="8" t="n">
+      <c r="Z16" s="15" t="n">
         <f aca="false">AI16</f>
         <v>15</v>
       </c>
@@ -1964,7 +1967,7 @@
         <f aca="false">IFERROR(INDEX($C$3:$C$10,MATCH(U17,$B$3:$B$10)),"ANY")</f>
         <v>🍉</v>
       </c>
-      <c r="Z17" s="8" t="n">
+      <c r="Z17" s="15" t="n">
         <f aca="false">AI17</f>
         <v>15</v>
       </c>
@@ -2055,7 +2058,7 @@
         <f aca="false">IFERROR(INDEX($C$3:$C$10,MATCH(U18,$B$3:$B$10)),"ANY")</f>
         <v>ANY</v>
       </c>
-      <c r="Z18" s="8" t="n">
+      <c r="Z18" s="15" t="n">
         <f aca="false">AI18</f>
         <v>12</v>
       </c>
@@ -2146,7 +2149,7 @@
         <f aca="false">IFERROR(INDEX($C$3:$C$10,MATCH(U19,$B$3:$B$10)),"ANY")</f>
         <v>ANY</v>
       </c>
-      <c r="Z19" s="8" t="n">
+      <c r="Z19" s="15" t="n">
         <f aca="false">AI19</f>
         <v>12</v>
       </c>
@@ -2237,7 +2240,7 @@
         <f aca="false">IFERROR(INDEX($C$3:$C$10,MATCH(U20,$B$3:$B$10)),"ANY")</f>
         <v>🍒</v>
       </c>
-      <c r="Z20" s="8" t="n">
+      <c r="Z20" s="15" t="n">
         <f aca="false">AI20</f>
         <v>1</v>
       </c>
